--- a/group-reports/tables/shahriar-3-1-results-after-queue-test-3.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-after-queue-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>3474</t>
+          <t>3474 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>1279.09</t>
+          <t>1279.09 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2516 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>1279.31</t>
+          <t>1279.31 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2499 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1279.47</t>
+          <t>1279.47 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2519 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>1279.21</t>
+          <t>1279.21 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2504 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1279.26</t>
+          <t>1279.26 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>2565 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1279.25</t>
+          <t>1279.25 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2660 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>1279.06</t>
+          <t>1279.06 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>2558 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1279.28</t>
+          <t>1279.28 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2545 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>1279.35</t>
+          <t>1279.35 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2470 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>1279.09</t>
+          <t>1279.09 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1291 usec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2509.1k</t>
+          <t>2509.1k usec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1279250.16</t>
+          <t>1279250.16 usec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2511 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1279.02</t>
+          <t>1279.02 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>2643 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1279.15</t>
+          <t>1279.15 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>2490 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1279.30</t>
+          <t>1279.30 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2493 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>1279.27</t>
+          <t>1279.27 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2520 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>1279.09</t>
+          <t>1279.09 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>3247 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>1279.43</t>
+          <t>1279.43 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2529 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>1279.05</t>
+          <t>1279.05 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>2570 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>1279.23</t>
+          <t>1279.23 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2520 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>1279.41</t>
+          <t>1279.41 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2526 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>1279.09</t>
+          <t>1279.09 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
